--- a/choi/액셀/수상태양광.xlsx
+++ b/choi/액셀/수상태양광.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -248,7 +248,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -676,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,127 +704,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,51 +844,26 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -894,7 +881,7 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="#,##0&quot;원&quot;"/>
+      <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1010,6 +997,30 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1543,6 +1554,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1945198383"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2186,15 +2198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>595313</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65485</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
+      <xdr:colOff>689373</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>271463</xdr:rowOff>
+      <xdr:rowOff>253604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,7 +2230,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5369719" y="65485"/>
+          <a:off x="5703094" y="47626"/>
           <a:ext cx="2296716" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2495,7 +2507,7 @@
     <cacheField name="발전규모_x000a_(Kw)" numFmtId="41">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="870" maxValue="4540"/>
     </cacheField>
-    <cacheField name="설치비용" numFmtId="178">
+    <cacheField name="설치비용" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4520000" maxValue="32760000"/>
     </cacheField>
   </cacheFields>
@@ -2585,7 +2597,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="설치일" colHeaderCaption="형태">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="설치일" colHeaderCaption="형태">
   <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2623,7 +2635,7 @@
     </pivotField>
     <pivotField numFmtId="41" showAll="0"/>
     <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField numFmtId="178" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -2694,13 +2706,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B18:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="사업장" dataDxfId="12"/>
-    <tableColumn id="2" name="용량_x000a_(Kw)" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="발전규모_x000a_(Kw)" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="설치비용" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="사업장" dataDxfId="7"/>
+    <tableColumn id="2" name="용량_x000a_(Kw)" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="발전규모_x000a_(Kw)" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="설치비용" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2972,7 +2984,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2981,12 +2993,12 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="8.375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -2995,31 +3007,31 @@
     <row r="2" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3033,20 +3045,26 @@
       <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>42838</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="21">
         <v>500</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="21">
         <v>1830</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="22">
         <v>8830000</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="49">
+        <f>H5*IF(F5&gt;=1000=50%,F5&gt;=500=30%,20%)</f>
+        <v>1766000</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>CHOOSE(RIGHT(B5,1),"그린에너지","미래전자","한국전자")</f>
+        <v>한국전자</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -3061,17 +3079,23 @@
       <c r="E6" s="3">
         <v>42437</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <v>800</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="23">
         <v>2100</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="24">
         <v>15360000</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I12" si="0">H6*IF(F6&gt;=1000=50%,F6&gt;=500=30%,20%)</f>
+        <v>3072000</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" ref="J6:J12" si="1">CHOOSE(RIGHT(B6,1),"그린에너지","미래전자","한국전자")</f>
+        <v>그린에너지</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -3086,17 +3110,23 @@
       <c r="E7" s="3">
         <v>42809</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="23">
         <v>1500</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="23">
         <v>4200</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="24">
         <v>27860000</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="50">
+        <f t="shared" si="0"/>
+        <v>5572000</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>미래전자</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -3111,17 +3141,23 @@
       <c r="E8" s="3">
         <v>42286</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="23">
         <v>300</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="23">
         <v>1150</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="24">
         <v>5500000</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="50">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>미래전자</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -3136,17 +3172,23 @@
       <c r="E9" s="3">
         <v>43263</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="23">
         <v>1000</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="23">
         <v>3540</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <v>18120000</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="50">
+        <f t="shared" si="0"/>
+        <v>3624000</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>미래전자</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
@@ -3161,17 +3203,23 @@
       <c r="E10" s="3">
         <v>42410</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="23">
         <v>1350</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="23">
         <v>3950</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>21960000</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="50">
+        <f t="shared" si="0"/>
+        <v>4392000</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>한국전자</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
@@ -3186,76 +3234,100 @@
       <c r="E11" s="3">
         <v>42689</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="23">
         <v>1800</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="23">
         <v>4540</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="24">
         <v>32760000</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="50">
+        <f t="shared" si="0"/>
+        <v>6552000</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>그린에너지</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="14">
         <v>42318</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="25">
         <v>200</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="25">
         <v>870</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="26">
         <v>4520000</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="51">
+        <f t="shared" si="0"/>
+        <v>904000</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>그린에너지</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="52">
+        <f>ROUND(DAVERAGE(B4:H12,H4,D4:D5),-3)</f>
+        <v>18983000</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="11">
+        <f>SMALL(용량,1)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="9" t="str">
+        <f>COUNTIF(D5:D12,D7)&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="53">
+        <f>VLOOKUP(H14,C5:H12,6,FALSE)</f>
+        <v>8830000</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3267,6 +3339,11 @@
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F5&lt;=500</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$C$5:$C$12</formula1>
@@ -3301,25 +3378,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3333,16 +3410,16 @@
       <c r="D3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>42838</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="21">
         <v>500</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="21">
         <v>1830</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="22">
         <v>8830000</v>
       </c>
     </row>
@@ -3359,13 +3436,13 @@
       <c r="E4" s="3">
         <v>42437</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="23">
         <v>800</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="23">
         <v>2100</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="24">
         <v>15360000</v>
       </c>
     </row>
@@ -3382,13 +3459,13 @@
       <c r="E5" s="3">
         <v>42809</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="23">
         <v>1500</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="23">
         <v>4200</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <v>27860000</v>
       </c>
     </row>
@@ -3405,13 +3482,13 @@
       <c r="E6" s="3">
         <v>42286</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <v>300</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="23">
         <v>1150</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="24">
         <v>5500000</v>
       </c>
     </row>
@@ -3428,13 +3505,13 @@
       <c r="E7" s="3">
         <v>43263</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="23">
         <v>1000</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="23">
         <v>3540</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="24">
         <v>18120000</v>
       </c>
     </row>
@@ -3451,13 +3528,13 @@
       <c r="E8" s="3">
         <v>42410</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="23">
         <v>1350</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="23">
         <v>3950</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="24">
         <v>21960000</v>
       </c>
     </row>
@@ -3474,45 +3551,45 @@
       <c r="E9" s="3">
         <v>42689</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="23">
         <v>1800</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="23">
         <v>4540</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <v>32760000</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="14">
         <v>42318</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="25">
         <v>200</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="25">
         <v>870</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="26">
         <v>4520000</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3527,72 +3604,72 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="21">
         <v>500</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="21">
         <v>1830</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="29">
         <v>8830000</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="23">
         <v>300</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="23">
         <v>1150</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="30">
         <v>5500000</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="23">
         <v>1350</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="23">
         <v>3950</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="30">
         <v>21960000</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="31">
         <v>200</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="31">
         <v>870</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="32">
         <v>4520000</v>
       </c>
     </row>
@@ -3629,180 +3706,180 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="48"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="40">
         <v>870</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="40">
         <v>1</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="40">
         <v>1150</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="40">
         <v>3950</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <v>2</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="40">
         <v>3320</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="40" t="s">
         <v>42</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="40">
         <v>1</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="40">
         <v>1830</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="40">
         <v>4200</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="40">
         <v>1</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="40">
         <v>3540</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="40">
         <v>2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="40">
         <v>2410</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="40">
         <v>3</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="40">
         <v>2823.3333333333335</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="40">
         <v>3</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="40">
         <v>2963.3333333333335</v>
       </c>
       <c r="I9"/>
